--- a/Output_testing/R1_201907/Country/HKD/MN/BAHAMAS_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/BAHAMAS_201907_HKD_MN.xlsx
@@ -544,17 +544,25 @@
       <c r="C7" s="2" t="n">
         <v>147</v>
       </c>
-      <c r="D7" s="8" t="n">
-        <v>0.242936</v>
+      <c r="D7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
-      <c r="E7" s="8" t="n">
-        <v>0.15689</v>
+      <c r="E7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
-      <c r="F7" s="8" t="n">
-        <v>0.069802</v>
+      <c r="F7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
-      <c r="G7" s="8" t="n">
-        <v>0.029205</v>
+      <c r="G7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="H7" s="9" t="n">
         <v>-35.4192050581223</v>

--- a/Output_testing/R1_201907/Country/HKD/MN/BAHAMAS_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/BAHAMAS_201907_HKD_MN.xlsx
@@ -818,136 +818,491 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>FOOTWEAR</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>1.484815</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>2.276949110394787</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>2.405429</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>0.466252849605213</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>1.20407</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>6.481176560131434</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>1.422472</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>25.13218730659098</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>74.92944271117075</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>57.307762</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>87.88088597206803</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>29.563807</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>5.730457751581337</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>8.231745</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>44.30921187553807</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>1.143918</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>20.21070463206372</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>-74.37278840240744</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>1.692058</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>2.594754200244733</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>0.648804</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>0.1257599845330129</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>1.943046</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>10.45888045583491</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>0.582135</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>10.28514154072793</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>-51.8764652780763</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>1.319445</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>2.023355851715432</v>
+      </c>
+      <c r="E21" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F21" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>0.571896</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>3.078358359591158</v>
+      </c>
+      <c r="I21" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>7.512701942645894</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>150.1667911962488</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>0.1518891279293265</v>
+      </c>
+      <c r="E22" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F22" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G22" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H22" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I22" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>5.027066440917173</v>
+      </c>
+      <c r="K22" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>0.6122765942607845</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>0.500094</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>0.09693499686354051</v>
+      </c>
+      <c r="G23" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>2.047776628147534</v>
+      </c>
+      <c r="I23" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>3.800962586137961</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>0.3358005344825221</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>0.7666668445515189</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>1.084343</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>0.2101820563814045</v>
+      </c>
+      <c r="G24" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>0.8901410779680045</v>
+      </c>
+      <c r="I24" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>3.510713236363289</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>113.7440299470763</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>0.4249393090621107</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>3.425403</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>0.6639580340123302</v>
+      </c>
+      <c r="G25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>2.235660611496831</v>
+      </c>
+      <c r="I25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>2.601608032281495</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>893.5897435897436</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>0.657068306740468</v>
+      </c>
+      <c r="E26" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>0.05136841138625432</v>
+      </c>
+      <c r="G26" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>0.7218179138563913</v>
+      </c>
+      <c r="I26" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>2.584929472128871</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>62.8209265833491</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>843</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>MEN'S OR BOYS' COATS, CAPES, JACKETS, SUITS, BLAZERS, TROUSERS, SHORTS, SHIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES OF TEXTILE FABRICS, KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D27" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F27" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>0.8448131586503014</v>
+      </c>
+      <c r="I27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>2.572243872351771</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>55.91419728626963</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>1.702792</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>2.611214683032809</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>477.712858</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>92.5967805890552</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>5.369833</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>28.90432929266592</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>0.948708</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>16.76174093779091</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-30.94806409467904</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -979,136 +1334,599 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>90.0302960450489</v>
+      </c>
+      <c r="E31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>24.36802855503856</v>
+      </c>
+      <c r="G31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>19.31033494742271</v>
+      </c>
+      <c r="I31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>66.36192432802602</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>112.1852419531421</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>0.5137155464813777</v>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>18.06998534004717</v>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>13.88785421621157</v>
+      </c>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>33.63807567197398</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>67.58785397475265</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>699</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>MANUFACTURES OF BASE METAL, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>66.80181083636572</v>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>848</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL AND CLOTHING ACCESSORIES OF OTHER THAN TEXTILE FABRICS; HEADGEAR OF ALL MATERIALS</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>27.01893046083243</v>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>16.85384664414558</v>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>13.68920899993626</v>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>NON-ALCOHOLIC BEVERAGES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>9.45598840846972</v>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>036</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>CRUSTACEANS, MOLLUSCS &amp; AQUATIC INVERTEBRATES; CRUSTACEANS, IN SHELL, COOKED BY BOILING IN WATER; FLOURS, MEALS &amp; PELLETS OF CRUSTACEANS, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>037</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>FISH, CRUSTACEANS, MOLLUSCS AND OTHER AQUATIC INVERTEBRATES, PREPARED OR PRESERVED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>048</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>CEREAL PREPARATIONS AND PREPARATIONS OF FLOUR OR STARCH OF FRUITS OR VEGETABLES</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1140,136 +1958,497 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>FOOTWEAR</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>1.484815</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>2.28546337455725</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>2.405429</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>0.466394682775381</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>1.20407</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>6.505619793915677</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>1.422472</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>25.26254023438416</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>74.92944271117075</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>57.307762</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>88.20950160716569</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>29.563807</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>5.732200945194221</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>8.231745</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>44.47632048839884</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>1.143918</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>20.31553134250534</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>-74.37278840240744</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>1.692058</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>2.604456842520173</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>0.648804</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>0.1257982404649642</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>1.943046</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>10.4983252785043</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>0.582135</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>10.33848740737478</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>-51.8764652780763</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>1.319445</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>2.030921846992851</v>
+      </c>
+      <c r="E47" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F47" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>0.571896</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>3.089968139444716</v>
+      </c>
+      <c r="I47" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>7.551668017580587</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>150.1667911962488</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>0.152457091505101</v>
+      </c>
+      <c r="E48" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F48" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G48" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H48" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I48" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>5.053140288799586</v>
+      </c>
+      <c r="K48" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>0.6126451465455466</v>
+      </c>
+      <c r="E49" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>0.09146763144170514</v>
+      </c>
+      <c r="G49" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>2.003122732080437</v>
+      </c>
+      <c r="I49" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>3.646206655021102</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>-1.554535820974245</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>0.7695336648986725</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>1.084343</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>0.2102459933362011</v>
+      </c>
+      <c r="G50" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>0.8934981731293324</v>
+      </c>
+      <c r="I50" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>3.528922226429275</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>113.7440299470763</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>0.4265282973771556</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>3.425403</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>0.6641600086981735</v>
+      </c>
+      <c r="G51" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>2.244092224874747</v>
+      </c>
+      <c r="I51" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>2.615101773189959</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>893.5897435897436</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>843</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>MEN'S OR BOYS' COATS, CAPES, JACKETS, SUITS, BLAZERS, TROUSERS, SHORTS, SHIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES OF TEXTILE FABRICS, KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D52" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F52" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>0.8479993032259514</v>
+      </c>
+      <c r="I52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>2.585585310391713</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>55.91419728626963</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>844</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>WOMEN'S OR GIRLS' COATS, CAPES, JACKETS, SUITS, TROUSERS, SHORTS, SHIRTS, DRESSES AND SKIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES, OF TEXTILE FABRICS, KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D53" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F53" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>0.3215664103039569</v>
+      </c>
+      <c r="I53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>2.319191241815486</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>320.4107913205847</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>1.889583</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>2.908492128437557</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>477.874763</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>92.65634050963276</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>5.384308</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>29.09154841607093</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>0.945045</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>16.78362550250801</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-31.36614093455257</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1301,136 +2480,557 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>0.7685959999999999</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>21.95245324083132</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>6.025559</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>89.56761214534144</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>3.295802</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>73.36296817333933</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>2.368454</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>56.57471375290284</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>328.9682827170511</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>WORKS OF ART, COLLECTORS' PIECES AND ANTIQUES</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>22.84940670087413</v>
+      </c>
+      <c r="E58" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F58" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G58" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H58" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>1.26961</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>30.32688088002679</v>
+      </c>
+      <c r="K58" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>036</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>CRUSTACEANS, MOLLUSCS &amp; AQUATIC INVERTEBRATES; CRUSTACEANS, IN SHELL, COOKED BY BOILING IN WATER; FLOURS, MEALS &amp; PELLETS OF CRUSTACEANS, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>0.543148</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>15.51326193845798</v>
+      </c>
+      <c r="E59" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F59" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G59" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H59" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I59" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>8.361897928013876</v>
+      </c>
+      <c r="K59" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>2.947801958479772</v>
+      </c>
+      <c r="E60" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>7.042973303449513</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>0.951825</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>21.18716694194272</v>
+      </c>
+      <c r="I60" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>2.821744030338108</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>-86.0203168712397</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>1.15200762970937</v>
+      </c>
+      <c r="G61" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>1.169496213708235</v>
+      </c>
+      <c r="K61" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>0.7452671950101495</v>
+      </c>
+      <c r="K62" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>NON-FERROUS BASE METAL WASTE AND SCRAP, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>4.944818651696398</v>
+      </c>
+      <c r="I63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>0.4658994026308236</v>
+      </c>
+      <c r="E64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>0.571202544346348</v>
+      </c>
+      <c r="G64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>0.5050462330215517</v>
+      </c>
+      <c r="I64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>8.031366523048625</v>
+      </c>
+      <c r="E65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>0.6638685516187119</v>
+      </c>
+      <c r="G65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>CRUDE ANIMAL MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>0.5820886357047685</v>
+      </c>
+      <c r="E66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>0.6313150456953117</v>
+      </c>
+      <c r="G66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>0.968348</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>27.65772159997258</v>
+      </c>
+      <c r="E67" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>0.3710207798393017</v>
+      </c>
+      <c r="G67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
